--- a/VT_Model_ALL_V01.xlsx
+++ b/VT_Model_ALL_V01.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18585" windowHeight="12075" tabRatio="901" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18585" windowHeight="12075" tabRatio="901" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="SEC_Comm" sheetId="112" r:id="rId1"/>
@@ -820,7 +820,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="118">
   <si>
     <t>~FI_Comm</t>
   </si>
@@ -1168,6 +1168,12 @@
   </si>
   <si>
     <t>Variable Cost O&amp;M [zł/PJ]</t>
+  </si>
+  <si>
+    <t>COAL_MINE</t>
+  </si>
+  <si>
+    <t>kopalnia</t>
   </si>
 </sst>
 </file>
@@ -2624,6 +2630,12 @@
     <xf numFmtId="0" fontId="0" fillId="36" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="26" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="27" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="59" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2635,12 +2647,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="13" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="26" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="27" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="340">
@@ -3524,7 +3530,7 @@
       <c r="H3" s="103"/>
       <c r="I3" s="103"/>
       <c r="J3" s="104"/>
-      <c r="K3" s="112" t="s">
+      <c r="K3" s="114" t="s">
         <v>103</v>
       </c>
     </row>
@@ -3541,7 +3547,7 @@
       <c r="H4" s="106"/>
       <c r="I4" s="106"/>
       <c r="J4" s="107"/>
-      <c r="K4" s="112"/>
+      <c r="K4" s="114"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
       <c r="A5" s="105"/>
@@ -3570,7 +3576,7 @@
         <v>8</v>
       </c>
       <c r="J5" s="107"/>
-      <c r="K5" s="112"/>
+      <c r="K5" s="114"/>
     </row>
     <row r="6" spans="1:11" ht="31.7" customHeight="1" thickBot="1">
       <c r="A6" s="105"/>
@@ -3599,7 +3605,7 @@
         <v>42</v>
       </c>
       <c r="J6" s="107"/>
-      <c r="K6" s="112"/>
+      <c r="K6" s="114"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1">
       <c r="A7" s="105"/>
@@ -3612,7 +3618,7 @@
       <c r="D7" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="E7" s="115" t="s">
+      <c r="E7" s="111" t="s">
         <v>106</v>
       </c>
       <c r="F7" s="38"/>
@@ -3622,7 +3628,7 @@
       <c r="H7" s="38"/>
       <c r="I7" s="38"/>
       <c r="J7" s="107"/>
-      <c r="K7" s="112"/>
+      <c r="K7" s="114"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1">
       <c r="A8" s="105"/>
@@ -3635,7 +3641,7 @@
       <c r="D8" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="E8" s="116" t="s">
+      <c r="E8" s="112" t="s">
         <v>106</v>
       </c>
       <c r="F8" s="42"/>
@@ -3645,7 +3651,7 @@
       <c r="H8" s="42"/>
       <c r="I8" s="42"/>
       <c r="J8" s="107"/>
-      <c r="K8" s="112"/>
+      <c r="K8" s="114"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1">
       <c r="A9" s="105"/>
@@ -3658,7 +3664,7 @@
       <c r="H9" s="38"/>
       <c r="I9" s="38"/>
       <c r="J9" s="107"/>
-      <c r="K9" s="112"/>
+      <c r="K9" s="114"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1">
       <c r="A10" s="105"/>
@@ -3671,7 +3677,7 @@
       <c r="H10" s="42"/>
       <c r="I10" s="42"/>
       <c r="J10" s="107"/>
-      <c r="K10" s="112"/>
+      <c r="K10" s="114"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="A11" s="105"/>
@@ -3684,7 +3690,7 @@
       <c r="H11" s="47"/>
       <c r="I11" s="47"/>
       <c r="J11" s="107"/>
-      <c r="K11" s="112"/>
+      <c r="K11" s="114"/>
     </row>
     <row r="12" spans="1:11" ht="13.5" thickBot="1">
       <c r="A12" s="108"/>
@@ -3697,14 +3703,14 @@
       <c r="H12" s="109"/>
       <c r="I12" s="109"/>
       <c r="J12" s="110"/>
-      <c r="K12" s="112"/>
+      <c r="K12" s="114"/>
     </row>
     <row r="14" spans="1:11" ht="15.75" customHeight="1"/>
     <row r="15" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B15" s="111" t="s">
+      <c r="B15" s="113" t="s">
         <v>102</v>
       </c>
-      <c r="C15" s="111"/>
+      <c r="C15" s="113"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1">
       <c r="B16" s="97" t="s">
@@ -3868,7 +3874,7 @@
       <c r="D7" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="E7" s="115" t="s">
+      <c r="E7" s="111" t="s">
         <v>105</v>
       </c>
       <c r="F7" s="35" t="s">
@@ -4032,8 +4038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4185,11 +4191,22 @@
       <c r="T6" s="5"/>
     </row>
     <row r="7" spans="1:20" ht="15.75" customHeight="1">
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="16"/>
+      <c r="B7" s="55" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7" s="15" t="str">
+        <f>SEC_Comm!C7</f>
+        <v>HARD_COAL</v>
+      </c>
+      <c r="E7" s="17">
+        <v>11</v>
+      </c>
+      <c r="F7" s="16">
+        <v>500</v>
+      </c>
     </row>
     <row r="8" spans="1:20" ht="15.75" customHeight="1">
       <c r="B8" s="20"/>
@@ -4239,7 +4256,7 @@
   <dimension ref="B2:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4404,7 +4421,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -4569,11 +4586,11 @@
       <c r="B14" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="C14" s="113" t="s">
+      <c r="C14" s="115" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="113"/>
-      <c r="E14" s="113"/>
+      <c r="D14" s="115"/>
+      <c r="E14" s="115"/>
     </row>
     <row r="15" spans="2:11">
       <c r="B15" s="63" t="s">
@@ -4665,11 +4682,11 @@
       <c r="C6" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="114" t="s">
+      <c r="D6" s="116" t="s">
         <v>81</v>
       </c>
-      <c r="E6" s="114"/>
-      <c r="F6" s="114"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
     </row>
     <row r="7" spans="2:10">
       <c r="B7" s="63"/>
@@ -4715,12 +4732,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8acd6055-54fc-4ce7-b3df-0a09834a0329">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4943,20 +4962,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8acd6055-54fc-4ce7-b3df-0a09834a0329">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
+    <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4981,12 +5001,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
-    <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>